--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,28 +46,37 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>okay</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>okay</t>
+    <t>paint</t>
   </si>
   <si>
     <t>small</t>
@@ -79,118 +88,118 @@
     <t>broken</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
-    <t>picture</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>could</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
+    <t>pieces</t>
+  </si>
+  <si>
     <t>used</t>
   </si>
   <si>
-    <t>expected</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>toy</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>negative</t>
@@ -214,12 +223,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -229,64 +238,58 @@
     <t>friends</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>fun</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
+    <t>family</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>game</t>
   </si>
   <si>
+    <t>playing</t>
+  </si>
+  <si>
     <t>cute</t>
   </si>
   <si>
-    <t>playing</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>grandson</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
-    <t>well</t>
+    <t>kids</t>
   </si>
   <si>
     <t>good</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>year</t>
   </si>
   <si>
     <t>positive</t>
@@ -647,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -737,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K3">
-        <v>0.9285714285714286</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -758,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -787,16 +790,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -808,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -816,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7526881720430108</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -834,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K5">
         <v>0.8279569892473119</v>
@@ -866,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7464788732394366</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -884,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K6">
-        <v>0.71875</v>
+        <v>0.75</v>
       </c>
       <c r="L6">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M6">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -908,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -916,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.734375</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K7">
-        <v>0.6415094339622641</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -958,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -966,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6824324324324325</v>
+        <v>0.71875</v>
       </c>
       <c r="C8">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -984,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K8">
-        <v>0.6398852223816356</v>
+        <v>0.6355810616929699</v>
       </c>
       <c r="L8">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M8">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1008,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1016,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6727272727272727</v>
+        <v>0.6941747572815534</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="D9">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1034,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K9">
-        <v>0.5809128630705395</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="L9">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="M9">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1058,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>202</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1066,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6650485436893204</v>
+        <v>0.6824324324324325</v>
       </c>
       <c r="C10">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="D10">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1084,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K10">
-        <v>0.5652173913043478</v>
+        <v>0.58298755186722</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1108,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>30</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1116,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6386554621848739</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C11">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1134,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K11">
-        <v>0.541871921182266</v>
+        <v>0.5295566502463054</v>
       </c>
       <c r="L11">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="M11">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1158,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>558</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1166,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5925925925925926</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1184,31 +1187,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K12">
-        <v>0.4606060606060606</v>
+        <v>0.4397590361445783</v>
       </c>
       <c r="L12">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M12">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1216,37 +1219,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5784883720930233</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C13">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K13">
-        <v>0.4444444444444444</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="L13">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1258,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1266,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5370370370370371</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1284,31 +1287,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14">
+        <v>0.4083333333333333</v>
+      </c>
+      <c r="L14">
+        <v>49</v>
+      </c>
+      <c r="M14">
+        <v>49</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>71</v>
-      </c>
-      <c r="K14">
-        <v>0.4342507645259939</v>
-      </c>
-      <c r="L14">
-        <v>142</v>
-      </c>
-      <c r="M14">
-        <v>142</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1316,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5060240963855421</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D15">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1334,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K15">
-        <v>0.375</v>
+        <v>0.3975535168195719</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1358,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>75</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1366,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4960629921259843</v>
+        <v>0.5391304347826087</v>
       </c>
       <c r="C16">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="D16">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1384,31 +1387,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K16">
-        <v>0.3243243243243243</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L16">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M16">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="N16">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>125</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1416,13 +1419,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4947368421052631</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C17">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1434,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K17">
-        <v>0.3203125</v>
+        <v>0.359375</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1458,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1466,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4881516587677725</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="C18">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="D18">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1484,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K18">
-        <v>0.2741935483870968</v>
+        <v>0.2822580645161291</v>
       </c>
       <c r="L18">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N18">
         <v>0.99</v>
@@ -1508,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1516,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4296875</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="C19">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1534,31 +1537,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K19">
-        <v>0.2657342657342657</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1566,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4157303370786517</v>
+        <v>0.4881889763779528</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1584,31 +1587,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K20">
-        <v>0.2532865907099036</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L20">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="M20">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>852</v>
+        <v>871</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1616,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3712871287128713</v>
+        <v>0.4881516587677725</v>
       </c>
       <c r="C21">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D21">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1634,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K21">
-        <v>0.248</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1658,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1666,13 +1669,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3247863247863248</v>
+        <v>0.46875</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1684,19 +1687,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K22">
-        <v>0.246031746031746</v>
+        <v>0.1838440111420613</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1708,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>95</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1716,13 +1719,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3163265306122449</v>
+        <v>0.453125</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1734,31 +1737,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K23">
-        <v>0.1711229946524064</v>
+        <v>0.1528150134048257</v>
       </c>
       <c r="L23">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M23">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1766,37 +1769,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3005181347150259</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="C24">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D24">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E24">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K24">
-        <v>0.1708683473389356</v>
+        <v>0.1486310299869622</v>
       </c>
       <c r="L24">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="M24">
-        <v>63</v>
+        <v>235</v>
       </c>
       <c r="N24">
         <v>0.97</v>
@@ -1808,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>296</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1816,13 +1819,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2989690721649484</v>
+        <v>0.3861386138613861</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1834,31 +1837,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K25">
-        <v>0.1553524804177546</v>
+        <v>0.1152647975077882</v>
       </c>
       <c r="L25">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>1294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1866,49 +1869,49 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2784810126582278</v>
+        <v>0.3298969072164948</v>
       </c>
       <c r="C26">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K26">
-        <v>0.125</v>
+        <v>0.1137254901960784</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1916,13 +1919,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.26</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="C27">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1934,31 +1937,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K27">
-        <v>0.096875</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N27">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O27">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>289</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1966,49 +1969,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2554744525547445</v>
+        <v>0.2938144329896907</v>
       </c>
       <c r="C28">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D28">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E28">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K28">
-        <v>0.09274193548387097</v>
+        <v>0.1</v>
       </c>
       <c r="L28">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="N28">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O28">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>675</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2016,13 +2019,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.25</v>
+        <v>0.285</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2034,31 +2037,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K29">
-        <v>0.08465608465608465</v>
+        <v>0.08993288590604027</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M29">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="N29">
-        <v>0.64</v>
+        <v>0.91</v>
       </c>
       <c r="O29">
-        <v>0.36</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>346</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2066,49 +2069,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2457627118644068</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K30">
-        <v>0.07780979827089338</v>
+        <v>0.05605786618444846</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="N30">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="O30">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>640</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2116,49 +2119,49 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2432835820895522</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C31">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="D31">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="E31">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>507</v>
+        <v>104</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K31">
-        <v>0.07529411764705882</v>
+        <v>0.05459770114942529</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N31">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O31">
-        <v>0.2</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>393</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2166,165 +2169,117 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2427745664739884</v>
+        <v>0.25</v>
       </c>
       <c r="C32">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D32">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E32">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>262</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K32">
-        <v>0.06797853309481217</v>
-      </c>
-      <c r="L32">
-        <v>38</v>
-      </c>
-      <c r="M32">
-        <v>44</v>
-      </c>
-      <c r="N32">
-        <v>0.86</v>
-      </c>
-      <c r="O32">
-        <v>0.14</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2356687898089172</v>
+        <v>0.2492537313432836</v>
       </c>
       <c r="C33">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="D33">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>120</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K33">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="L33">
-        <v>32</v>
-      </c>
-      <c r="M33">
-        <v>36</v>
-      </c>
-      <c r="N33">
-        <v>0.89</v>
-      </c>
-      <c r="O33">
-        <v>0.11</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2244444444444444</v>
+        <v>0.2412698412698413</v>
       </c>
       <c r="C34">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="D34">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E34">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F34">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2206572769953052</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="C35">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D35">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="E35">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2183544303797468</v>
+        <v>0.2289719626168224</v>
       </c>
       <c r="C36">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D36">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2336,21 +2291,21 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2157894736842105</v>
+        <v>0.2254545454545455</v>
       </c>
       <c r="C37">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D37">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E37">
         <v>0.02</v>
@@ -2362,21 +2317,21 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2126436781609195</v>
+        <v>0.2243589743589744</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D38">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>0.03</v>
@@ -2388,73 +2343,73 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1822916666666667</v>
+        <v>0.2123893805309734</v>
       </c>
       <c r="C39">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="D39">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1795918367346939</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="C40">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D40">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E40">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F40">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1693989071038251</v>
+        <v>0.185792349726776</v>
       </c>
       <c r="C41">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D41">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2466,189 +2421,189 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1685823754789272</v>
+        <v>0.1828571428571429</v>
       </c>
       <c r="C42">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E42">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1684782608695652</v>
+        <v>0.1603053435114504</v>
       </c>
       <c r="C43">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D43">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E43">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="F43">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1460055096418733</v>
+        <v>0.1456043956043956</v>
       </c>
       <c r="C44">
         <v>53</v>
       </c>
       <c r="D44">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E44">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F44">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1278409090909091</v>
+        <v>0.1396011396011396</v>
       </c>
       <c r="C45">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D45">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E45">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F45">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1235955056179775</v>
+        <v>0.1357466063348416</v>
       </c>
       <c r="C46">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D46">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E46">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F46">
-        <v>0.9299999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1164725457570715</v>
+        <v>0.1346938775510204</v>
       </c>
       <c r="C47">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D47">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="E47">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F47">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1142857142857143</v>
+        <v>0.1247058823529412</v>
       </c>
       <c r="C48">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D48">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E48">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F48">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>279</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2656,25 +2611,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1092636579572447</v>
+        <v>0.1145510835913313</v>
       </c>
       <c r="C49">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D49">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="E49">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="F49">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>375</v>
+        <v>572</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2682,25 +2637,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08962264150943396</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="C50">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D50">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E50">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="F50">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>386</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2708,25 +2663,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.08670520231213873</v>
+        <v>0.1054545454545455</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E51">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F51">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>316</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2734,25 +2689,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.08667529107373868</v>
+        <v>0.1015625</v>
       </c>
       <c r="C52">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D52">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E52">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F52">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>706</v>
+        <v>690</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2760,25 +2715,103 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07870370370370371</v>
+        <v>0.09932659932659933</v>
       </c>
       <c r="C53">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D53">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E53">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="F53">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>597</v>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.07801418439716312</v>
+      </c>
+      <c r="C54">
+        <v>33</v>
+      </c>
+      <c r="D54">
+        <v>39</v>
+      </c>
+      <c r="E54">
+        <v>0.15</v>
+      </c>
+      <c r="F54">
+        <v>0.85</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.07209302325581396</v>
+      </c>
+      <c r="C55">
+        <v>31</v>
+      </c>
+      <c r="D55">
+        <v>48</v>
+      </c>
+      <c r="E55">
+        <v>0.35</v>
+      </c>
+      <c r="F55">
+        <v>0.65</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.05811623246492986</v>
+      </c>
+      <c r="C56">
+        <v>29</v>
+      </c>
+      <c r="D56">
+        <v>34</v>
+      </c>
+      <c r="E56">
+        <v>0.15</v>
+      </c>
+      <c r="F56">
+        <v>0.85</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
